--- a/DataSingleWord.xlsx
+++ b/DataSingleWord.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangr\OneDrive\realestate translator project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bb1b682ff699cbb/realestate translator project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="D4F448700DEB1BFB74F2DECFB3A6556DF4EF0101" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{5A0ACE12-A141-4DC4-A464-B1AC43107D6F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23448" windowHeight="12912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="290">
   <si>
     <t>rear</t>
   </si>
@@ -159,9 +158,6 @@
     <t>retreat</t>
   </si>
   <si>
-    <t>间</t>
-  </si>
-  <si>
     <t>entertainer</t>
   </si>
   <si>
@@ -189,6 +185,9 @@
     <t>参观</t>
   </si>
   <si>
+    <t>enhanced #</t>
+  </si>
+  <si>
     <t>inclusive</t>
   </si>
   <si>
@@ -345,20 +344,556 @@
     <t>多功能</t>
   </si>
   <si>
-    <t>enhanced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>pontoon</t>
+  </si>
+  <si>
+    <t>浮台</t>
+  </si>
+  <si>
+    <t>休憩区</t>
+  </si>
+  <si>
+    <t>vast</t>
+  </si>
+  <si>
+    <t>宽敞</t>
+  </si>
+  <si>
+    <t>stylish</t>
+  </si>
+  <si>
+    <t>时尚</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>慷慨</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>acclaimed</t>
+  </si>
+  <si>
+    <t>adept</t>
+  </si>
+  <si>
+    <t>attractive</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>高尚</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>吸引人的</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>灵活</t>
+  </si>
+  <si>
+    <t>delectable</t>
+  </si>
+  <si>
+    <t>desirable</t>
+  </si>
+  <si>
+    <t>dramatic</t>
+  </si>
+  <si>
+    <t>eloquent</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>extraordinarily</t>
+  </si>
+  <si>
+    <t>exuberant</t>
+  </si>
+  <si>
+    <t>fabulous</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>uninterrupted</t>
+  </si>
+  <si>
+    <t>无尽的</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>glorious</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>luscious</t>
+  </si>
+  <si>
+    <t>lush</t>
+  </si>
+  <si>
+    <t>绿荫</t>
+  </si>
+  <si>
+    <t>opulent</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>palatial</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>一等</t>
+  </si>
+  <si>
+    <t>radiant</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>sleek</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>striking</t>
+  </si>
+  <si>
+    <t>sublime</t>
+  </si>
+  <si>
+    <t>sumptuous</t>
+  </si>
+  <si>
+    <t>sweeping</t>
+  </si>
+  <si>
+    <t>sympathetic</t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>思密</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>unbeatable</t>
+  </si>
+  <si>
+    <t>特佳</t>
+  </si>
+  <si>
+    <t>uniquely</t>
+  </si>
+  <si>
+    <t>utterly</t>
+  </si>
+  <si>
+    <t>verdant</t>
+  </si>
+  <si>
+    <t>voluminous</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>古早</t>
+  </si>
+  <si>
+    <t>council</t>
+  </si>
+  <si>
+    <t>市政厅</t>
+  </si>
+  <si>
+    <t>enclave</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>享受</t>
+  </si>
+  <si>
+    <t>vanity</t>
+  </si>
+  <si>
+    <t>vanities</t>
+  </si>
+  <si>
+    <t>洗脸盆</t>
+  </si>
+  <si>
+    <t>knockout</t>
+  </si>
+  <si>
+    <t>完美之选</t>
+  </si>
+  <si>
+    <t>renovation</t>
+  </si>
+  <si>
+    <t>downsize</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>接纳</t>
+  </si>
+  <si>
+    <t>insulated</t>
+  </si>
+  <si>
+    <t>紧密</t>
+  </si>
+  <si>
+    <t>insulate</t>
+  </si>
+  <si>
+    <t>双拼房</t>
+  </si>
+  <si>
+    <t>duplex</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>魔力</t>
+  </si>
+  <si>
+    <t>unspoilt</t>
+  </si>
+  <si>
+    <t>unspoiled</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>pockets</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>联系</t>
+  </si>
+  <si>
+    <t>expansive</t>
+  </si>
+  <si>
+    <t>小户型买家</t>
+  </si>
+  <si>
+    <t>studies</t>
+  </si>
+  <si>
+    <t>书房</t>
+  </si>
+  <si>
+    <t>boating</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>游船</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>cul-de-sac</t>
+  </si>
+  <si>
+    <t>胡同</t>
+  </si>
+  <si>
+    <t>cul de sac</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>precinct</t>
+  </si>
+  <si>
+    <t>finishes</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>地标</t>
+  </si>
+  <si>
+    <t>handsome</t>
+  </si>
+  <si>
+    <t>俊美</t>
+  </si>
+  <si>
+    <t>parkside</t>
+  </si>
+  <si>
+    <t>园边</t>
+  </si>
+  <si>
+    <t>reinstated</t>
+  </si>
+  <si>
+    <t>还原</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>棚</t>
+  </si>
+  <si>
+    <t>retreats</t>
+  </si>
+  <si>
+    <t>catchment</t>
+  </si>
+  <si>
+    <t>校区</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>对面</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>man-cave</t>
+  </si>
+  <si>
+    <t>猛男窝</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>巨无霸</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>围栏</t>
+  </si>
+  <si>
+    <t>fencing</t>
+  </si>
+  <si>
+    <t>highset</t>
+  </si>
+  <si>
+    <t>高边</t>
+  </si>
+  <si>
+    <t>humble</t>
+  </si>
+  <si>
+    <t>超值</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>viewing</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>街区</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>台面</t>
+  </si>
+  <si>
+    <t>renovations</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>郑重</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>公交</t>
+  </si>
+  <si>
+    <t>royalty</t>
+  </si>
+  <si>
+    <t>皇室</t>
+  </si>
+  <si>
+    <t>seamless</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>wonderfully</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>风格</t>
+  </si>
+  <si>
+    <t>downsizer</t>
+  </si>
+  <si>
+    <t>carspace</t>
+  </si>
+  <si>
+    <t>车位</t>
+  </si>
+  <si>
+    <t>catchments</t>
+  </si>
+  <si>
+    <t>sensational</t>
+  </si>
+  <si>
+    <t>顶级</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>庭院</t>
+  </si>
+  <si>
+    <t>stellar</t>
+  </si>
+  <si>
+    <t>靓丽</t>
+  </si>
+  <si>
+    <t>宴客</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>rumpus</t>
+  </si>
+  <si>
+    <t>娱乐间</t>
+  </si>
+  <si>
+    <t>upscale</t>
+  </si>
+  <si>
+    <t>升档</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>游泳池</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>结合</t>
+  </si>
+  <si>
+    <t>cartwheel</t>
+  </si>
+  <si>
+    <t>打滚</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>休闲</t>
   </si>
 </sst>
 </file>
@@ -395,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -403,13 +938,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -724,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -905,92 +1454,93 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
@@ -998,71 +1548,71 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -1070,7 +1620,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
@@ -1078,15 +1628,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -1094,15 +1644,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
@@ -1110,7 +1660,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1118,15 +1668,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
@@ -1134,15 +1684,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -1150,15 +1700,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
@@ -1166,118 +1716,1087 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>109</v>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>193</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>212</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>221</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>223</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>237</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>246</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>248</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>251</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>254</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>256</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSingleWord.xlsx
+++ b/DataSingleWord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="479">
   <si>
     <t>rear</t>
   </si>
@@ -185,9 +185,6 @@
     <t>参观</t>
   </si>
   <si>
-    <t>enhanced #</t>
-  </si>
-  <si>
     <t>inclusive</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>entertaining</t>
   </si>
   <si>
-    <t>吸引力</t>
-  </si>
-  <si>
     <t>throughout</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>robes</t>
   </si>
   <si>
-    <t>衣柜</t>
-  </si>
-  <si>
     <t>wing</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>fantastic</t>
   </si>
   <si>
-    <t>好</t>
-  </si>
-  <si>
     <t>uninterrupted</t>
   </si>
   <si>
@@ -473,9 +461,6 @@
     <t>prime</t>
   </si>
   <si>
-    <t>一等</t>
-  </si>
-  <si>
     <t>radiant</t>
   </si>
   <si>
@@ -659,9 +644,6 @@
     <t>cul-de-sac</t>
   </si>
   <si>
-    <t>胡同</t>
-  </si>
-  <si>
     <t>cul de sac</t>
   </si>
   <si>
@@ -863,9 +845,6 @@
     <t>rumpus</t>
   </si>
   <si>
-    <t>娱乐间</t>
-  </si>
-  <si>
     <t>upscale</t>
   </si>
   <si>
@@ -894,6 +873,596 @@
   </si>
   <si>
     <t>休闲</t>
+  </si>
+  <si>
+    <t>revitalised</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>homemaker</t>
+  </si>
+  <si>
+    <t>homemakers</t>
+  </si>
+  <si>
+    <t>家居负责人</t>
+  </si>
+  <si>
+    <t>thoughfully</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>situated</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>discreet</t>
+  </si>
+  <si>
+    <t>私密</t>
+  </si>
+  <si>
+    <t>特好</t>
+  </si>
+  <si>
+    <t>relaxing</t>
+  </si>
+  <si>
+    <t>休憩</t>
+  </si>
+  <si>
+    <t>revels</t>
+  </si>
+  <si>
+    <t>revel</t>
+  </si>
+  <si>
+    <t>appeals</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>calibre</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>grounds</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t>fixtures</t>
+  </si>
+  <si>
+    <t>装潢</t>
+  </si>
+  <si>
+    <t>undercover</t>
+  </si>
+  <si>
+    <t>有盖</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>舍弃</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>pergola</t>
+  </si>
+  <si>
+    <t>凉棚</t>
+  </si>
+  <si>
+    <t>downlight</t>
+  </si>
+  <si>
+    <t>downlights</t>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+  </si>
+  <si>
+    <t>衣帽间</t>
+  </si>
+  <si>
+    <t>游戏室</t>
+  </si>
+  <si>
+    <t>verandah</t>
+  </si>
+  <si>
+    <t>徊廊</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>礦建房</t>
+  </si>
+  <si>
+    <t>glory</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>警報系統</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>indulgence</t>
+  </si>
+  <si>
+    <t>tones</t>
+  </si>
+  <si>
+    <t>色调</t>
+  </si>
+  <si>
+    <t>capturing</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>极佳</t>
+  </si>
+  <si>
+    <t>hedged</t>
+  </si>
+  <si>
+    <t>灌木</t>
+  </si>
+  <si>
+    <t>effortlessly</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>业主</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>潜力</t>
+  </si>
+  <si>
+    <t>回旋</t>
+  </si>
+  <si>
+    <t>vista</t>
+  </si>
+  <si>
+    <t>美景环绕</t>
+  </si>
+  <si>
+    <t>budding</t>
+  </si>
+  <si>
+    <t>awe-inspiring</t>
+  </si>
+  <si>
+    <t>水坝</t>
+  </si>
+  <si>
+    <t>dam</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>文物</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>可行</t>
+  </si>
+  <si>
+    <t>footsteps</t>
+  </si>
+  <si>
+    <t>毗邻</t>
+  </si>
+  <si>
+    <t>bushland</t>
+  </si>
+  <si>
+    <t>丛林</t>
+  </si>
+  <si>
+    <t>overlooks</t>
+  </si>
+  <si>
+    <t>spending</t>
+  </si>
+  <si>
+    <t>花在</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>动人</t>
+  </si>
+  <si>
+    <t>allotment</t>
+  </si>
+  <si>
+    <t>佳位</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>easycare</t>
+  </si>
+  <si>
+    <t>易护理</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>暖气</t>
+  </si>
+  <si>
+    <t>profitable</t>
+  </si>
+  <si>
+    <t>潜力极佳</t>
+  </si>
+  <si>
+    <t>subdivision</t>
+  </si>
+  <si>
+    <t>土地分割</t>
+  </si>
+  <si>
+    <t>showpiece</t>
+  </si>
+  <si>
+    <t>展示品</t>
+  </si>
+  <si>
+    <t>desirably</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t>不拘一格</t>
+  </si>
+  <si>
+    <t>eclectic</t>
+  </si>
+  <si>
+    <t>esteemed</t>
+  </si>
+  <si>
+    <t>有名的</t>
+  </si>
+  <si>
+    <t>梁柱</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>laundry</t>
+  </si>
+  <si>
+    <t>洗衣房</t>
+  </si>
+  <si>
+    <t>landscaped</t>
+  </si>
+  <si>
+    <t>宴会之家</t>
+  </si>
+  <si>
+    <t>mates</t>
+  </si>
+  <si>
+    <t>亲友</t>
+  </si>
+  <si>
+    <t>esky</t>
+  </si>
+  <si>
+    <t>冷冻箱</t>
+  </si>
+  <si>
+    <t>cantilever</t>
+  </si>
+  <si>
+    <t>悬桁</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>根基</t>
+  </si>
+  <si>
+    <t>smartest</t>
+  </si>
+  <si>
+    <t>最灵活</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>启发</t>
+  </si>
+  <si>
+    <t>transformed</t>
+  </si>
+  <si>
+    <t>改变</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>改进</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>邻里</t>
+  </si>
+  <si>
+    <t>marvellous</t>
+  </si>
+  <si>
+    <t>marvellously</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>leafy</t>
+  </si>
+  <si>
+    <t>downsizers</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>showstopper</t>
+  </si>
+  <si>
+    <t>show stopper</t>
+  </si>
+  <si>
+    <t>plethora</t>
+  </si>
+  <si>
+    <t>多层</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>用餐</t>
+  </si>
+  <si>
+    <t>zoned</t>
+  </si>
+  <si>
+    <t>分区</t>
+  </si>
+  <si>
+    <t>undeniable</t>
+  </si>
+  <si>
+    <t>无可异议</t>
+  </si>
+  <si>
+    <t>introduces</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>改造</t>
+  </si>
+  <si>
+    <t>sympathetically</t>
+  </si>
+  <si>
+    <t>ovals</t>
+  </si>
+  <si>
+    <t>运动场</t>
+  </si>
+  <si>
+    <t>天堂</t>
+  </si>
+  <si>
+    <t>thoughtfully</t>
+  </si>
+  <si>
+    <t>acreage</t>
+  </si>
+  <si>
+    <t>亩大地段</t>
+  </si>
+  <si>
+    <t>宝贵机遇</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>lovingly</t>
+  </si>
+  <si>
+    <t>頭等</t>
+  </si>
+  <si>
+    <t>brilliantly</t>
+  </si>
+  <si>
+    <t>intuitively</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>优越</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>舒适</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>featuring</t>
+  </si>
+  <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>Edwardian</t>
+  </si>
+  <si>
+    <t>爱德华时代</t>
+  </si>
+  <si>
+    <t>sunroom</t>
+  </si>
+  <si>
+    <t>阳光房</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>頂級</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>鄰近</t>
+  </si>
+  <si>
+    <t>interchange</t>
+  </si>
+  <si>
+    <t>公交交接點</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>村舍</t>
+  </si>
+  <si>
+    <t>presents</t>
+  </si>
+  <si>
+    <t>結合了</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>清格</t>
+  </si>
+  <si>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>caravan</t>
+  </si>
+  <si>
+    <t>旅遊車</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>rejuvenate</t>
+  </si>
+  <si>
+    <t>重整</t>
+  </si>
+  <si>
+    <t>parcel</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>revitalise</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -930,7 +1499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -947,11 +1516,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -959,6 +1539,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1273,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +2040,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -1473,15 +2059,15 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,12 +2083,12 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -1534,13 +2120,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
@@ -1548,7 +2136,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
@@ -1556,7 +2144,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
@@ -1564,7 +2152,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -1572,23 +2160,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
@@ -1596,31 +2184,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
@@ -1628,7 +2216,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
@@ -1636,7 +2224,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -1644,31 +2232,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
@@ -1676,7 +2264,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
@@ -1684,15 +2272,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -1700,15 +2288,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
@@ -1716,15 +2304,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
@@ -1732,231 +2320,231 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>9</v>
@@ -1964,23 +2552,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>9</v>
@@ -1988,15 +2576,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>9</v>
@@ -2004,39 +2592,39 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>9</v>
@@ -2044,23 +2632,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>9</v>
@@ -2068,7 +2656,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>9</v>
@@ -2076,31 +2664,31 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>9</v>
@@ -2108,23 +2696,23 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>9</v>
@@ -2132,23 +2720,23 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>9</v>
@@ -2156,15 +2744,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>9</v>
@@ -2172,7 +2760,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>9</v>
@@ -2180,15 +2768,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>9</v>
@@ -2196,7 +2784,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
@@ -2204,15 +2792,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -2220,7 +2808,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>9</v>
@@ -2228,15 +2816,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>9</v>
@@ -2244,554 +2832,1463 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>190</v>
-      </c>
-      <c r="B135" t="s">
-        <v>189</v>
+        <v>416</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>196</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="B139" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>239</v>
-      </c>
-      <c r="B165" t="s">
-        <v>240</v>
+        <v>226</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>241</v>
+      <c r="A166" t="s">
+        <v>228</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>246</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>52</v>
+        <v>233</v>
+      </c>
+      <c r="B169" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>247</v>
+      <c r="A170" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>259</v>
+      <c r="A175" t="s">
+        <v>242</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>195</v>
+      <c r="A176" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>9</v>
+      <c r="A177" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>265</v>
+      <c r="A178" t="s">
+        <v>250</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>267</v>
+      <c r="A179" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>275</v>
+      <c r="A183" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B198" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>289</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B203" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B236" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B241" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B261" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B280" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C292" s="10"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B296" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
